--- a/EC/Train Runs and Enforcements 2016-05-26.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="617">
   <si>
     <t>Train ID</t>
   </si>
@@ -1868,9 +1868,6 @@
     <t>Onboard in-route failure</t>
   </si>
   <si>
-    <t>Discuss</t>
-  </si>
-  <si>
     <t>No issue found. Signals were clear, crossings were OK, GPS was OK. BPP had dropped from 108 to 88, maybe there was an inability to recover?</t>
   </si>
   <si>
@@ -1893,6 +1890,21 @@
   </si>
   <si>
     <t>Ticket Needed</t>
+  </si>
+  <si>
+    <t>103-26</t>
+  </si>
+  <si>
+    <t>104-26</t>
+  </si>
+  <si>
+    <t>115-26</t>
+  </si>
+  <si>
+    <t>162-26</t>
+  </si>
+  <si>
+    <t>Offered, not chosen</t>
   </si>
 </sst>
 </file>
@@ -2778,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M145" sqref="M145:O145"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R149" sqref="R149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9835,10 +9847,10 @@
         <v>8.5999999986961484</v>
       </c>
       <c r="Q84" s="61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R84" s="61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T84" s="73" t="str">
         <f t="shared" si="19"/>
@@ -13199,10 +13211,10 @@
         <v>12.766666664974764</v>
       </c>
       <c r="Q124" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="R124" s="61" t="s">
         <v>604</v>
-      </c>
-      <c r="R124" s="61" t="s">
-        <v>605</v>
       </c>
       <c r="T124" s="73" t="str">
         <f t="shared" si="19"/>
@@ -13870,7 +13882,7 @@
         <v>2.8229166666278616E-2</v>
       </c>
       <c r="N132" s="13">
-        <f t="shared" ref="N131:N140" si="28">24*60*SUM($M132:$M132)</f>
+        <f t="shared" ref="N132:N140" si="28">24*60*SUM($M132:$M132)</f>
         <v>40.649999999441206</v>
       </c>
       <c r="O132" s="13"/>
@@ -15117,7 +15129,7 @@
   <dimension ref="A1:R72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15248,7 +15260,7 @@
         <v>83</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P3" s="80" t="str">
         <f>VLOOKUP(C3,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -15301,7 +15313,7 @@
         <v>133</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P4" s="80" t="str">
         <f>VLOOKUP(C4,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -15354,7 +15366,7 @@
         <v>83</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P5" s="80" t="str">
         <f>VLOOKUP(C5,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -15407,14 +15419,14 @@
         <v>83</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P6" s="80" t="str">
         <f>VLOOKUP(C6,'Train Runs'!$A$3:$T$249,20,0)</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-26 15:15:05-0600',mode:absolute,to:'2016-05-26 16:14:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4037%22')),sort:!(Time,asc))</v>
       </c>
       <c r="Q6" s="19" t="str">
-        <f t="shared" ref="Q6:Q50" si="1">MID(B6,13,4)</f>
+        <f t="shared" ref="Q6" si="1">MID(B6,13,4)</f>
         <v>4037</v>
       </c>
     </row>
@@ -15460,7 +15472,7 @@
         <v>83</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P7" s="80" t="str">
         <f>VLOOKUP(C7,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -15513,7 +15525,7 @@
         <v>83</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P8" s="80" t="str">
         <f>VLOOKUP(C8,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -16535,7 +16547,7 @@
         <v>83</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P28" s="80" t="str">
         <f>VLOOKUP(C28,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -16599,7 +16611,7 @@
         <v>4008</v>
       </c>
       <c r="R29" s="83" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16644,7 +16656,7 @@
         <v>83</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P30" s="80" t="str">
         <f>VLOOKUP(C30,'Train Runs'!$A$3:$T$249,20,0)</f>
@@ -18733,8 +18745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18750,32 +18762,60 @@
       <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
+      <c r="A2" s="77" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="77" t="s">
+        <v>613</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="77"/>
+      <c r="A5" s="78" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="78" t="s">
+        <v>593</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="78" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="78"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="78" t="s">
+        <v>591</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="78"/>

--- a/EC/Train Runs and Enforcements 2016-05-26.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="616">
   <si>
     <t>Train ID</t>
   </si>
@@ -1887,9 +1887,6 @@
   </si>
   <si>
     <t>Wheel tach fault, ran in ATC after 38th</t>
-  </si>
-  <si>
-    <t>Ticket Needed</t>
   </si>
   <si>
     <t>103-26</t>
@@ -2790,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK157"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R149" sqref="R149"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9847,7 +9844,7 @@
         <v>8.5999999986961484</v>
       </c>
       <c r="Q84" s="61" t="s">
-        <v>611</v>
+        <v>263</v>
       </c>
       <c r="R84" s="61" t="s">
         <v>610</v>
@@ -18745,7 +18742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
@@ -18763,34 +18760,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="77" t="s">
         <v>615</v>
-      </c>
-      <c r="B5" s="77" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -18798,7 +18795,7 @@
         <v>593</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -18806,7 +18803,7 @@
         <v>573</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -18814,7 +18811,7 @@
         <v>591</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/EC/Train Runs and Enforcements 2016-05-26.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-26.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Denver Train Runs 04122016" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" name="Denver Train Runs 04122016" type="6" refreshedVersion="5" deleted="1" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\rwhitlock\Desktop\Denver Train Runs 04122016.txt">
       <textFields count="10">
         <textField/>
@@ -2788,7 +2788,7 @@
   <dimension ref="A1:CK157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q84" sqref="Q84"/>
+      <selection activeCell="Q83" sqref="Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
